--- a/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_5_parsed_output/tokens_potential.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-70B-Instruct/random_5_parsed_output/tokens_potential.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C518"/>
+  <dimension ref="A1:C516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3183,7 +3183,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve"> vaisala sensor</t>
+          <t>vaisala sensor</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -3192,73 +3192,73 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>vaisala sensor</t>
+          <t>average</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>average</t>
+          <t>tipping-bucket rain gauge</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>tipping-bucket rain gauge</t>
+          <t>millimeter</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>millimeter</t>
+          <t>leaf</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>leaf</t>
+          <t>sarma</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3267,18 +3267,18 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>sarma</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -3288,7 +3288,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>the Balkans</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3303,12 +3303,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>the Balkans</t>
+          <t>Sarma</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -3318,12 +3318,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Sarma</t>
+          <t>meat</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -3333,7 +3333,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>meat</t>
+          <t>seasoning plants</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3348,12 +3348,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>seasoning plants</t>
+          <t>Middle Eastern</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -3363,7 +3363,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Middle Eastern</t>
+          <t>South-Eastern European</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3378,12 +3378,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>South-Eastern European</t>
+          <t>agricultural expansion</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C197" t="n">
@@ -3393,12 +3393,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>agricultural expansion</t>
+          <t>transportation corridors</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C198" t="n">
@@ -3408,27 +3408,27 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>transportation corridors</t>
+          <t>Wu et al.</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Wu et al.</t>
+          <t>seedlings</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -3438,27 +3438,27 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>seedlings</t>
+          <t>subplot</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>subplot</t>
+          <t>Slope Inclination</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C202" t="n">
@@ -3468,12 +3468,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Slope Inclination</t>
+          <t>orbital plane</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -3483,7 +3483,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>orbital plane</t>
+          <t>plane of reference</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -3498,12 +3498,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>plane of reference</t>
+          <t>ecliptic</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -3513,12 +3513,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>ecliptic</t>
+          <t>inland water bodies</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C206" t="n">
@@ -3528,7 +3528,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>inland water bodies</t>
+          <t>open space</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3543,12 +3543,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>open space</t>
+          <t>ACG skipper butterflies</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C208" t="n">
@@ -3558,12 +3558,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>ACG skipper butterflies</t>
+          <t>subfamilies</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C209" t="n">
@@ -3573,12 +3573,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>subfamilies</t>
+          <t>Hesperiidae</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C210" t="n">
@@ -3588,12 +3588,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Hesperiidae</t>
+          <t>CCF</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -3603,7 +3603,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CCF</t>
+          <t>pattern recognition protein</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -3618,7 +3618,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>pattern recognition protein</t>
+          <t>fetidin</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3633,7 +3633,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>fetidin</t>
+          <t>lysenins</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3648,7 +3648,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>lysenins</t>
+          <t>lysozyme</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -3663,7 +3663,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>lysozyme</t>
+          <t>mtDNA</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -3678,12 +3678,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>mtDNA</t>
+          <t>A. cerana</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C217" t="n">
@@ -3693,7 +3693,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A. cerana</t>
+          <t>litter thrips</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -3708,37 +3708,37 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>litter thrips</t>
+          <t>plots</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>plots</t>
+          <t>tropics</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>tropics</t>
+          <t>subtropics</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -3753,7 +3753,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>subtropics</t>
+          <t>temperate region</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -3768,7 +3768,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>temperate region</t>
+          <t>tropical zones</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -3783,12 +3783,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>tropical zones</t>
+          <t>Soil CNS</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C224" t="n">
@@ -3798,7 +3798,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Soil CNS</t>
+          <t>Soil Science</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -3813,12 +3813,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Soil Science</t>
+          <t>Laboratory for Soil Science and Geoecology</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -3828,7 +3828,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Laboratory for Soil Science and Geoecology</t>
+          <t>Institute of Geography</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -3843,7 +3843,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Institute of Geography</t>
+          <t>Eberhard Karls University Tübingen</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -3858,12 +3858,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Eberhard Karls University Tübingen</t>
+          <t>Japanese waters</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C229" t="n">
@@ -3873,12 +3873,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Japanese waters</t>
+          <t>Japan</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C230" t="n">
@@ -3888,12 +3888,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>marine biodiversity</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -3903,12 +3903,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>marine biodiversity</t>
+          <t>single leaves</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -3918,12 +3918,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>single leaves</t>
+          <t>event</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -3933,12 +3933,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>event</t>
+          <t>event_start</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C234" t="n">
@@ -3948,7 +3948,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>event_start</t>
+          <t>date</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -3957,13 +3957,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>Date</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -3972,13 +3972,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Date</t>
+          <t>year</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -3993,42 +3993,42 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>year</t>
+          <t>biodiversity change</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>biodiversity change</t>
+          <t>fragmented landscapes</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>fragmented landscapes</t>
+          <t>fragmentation threshold</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -4038,12 +4038,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>fragmentation threshold</t>
+          <t>ecological resilience</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -4053,7 +4053,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ecological resilience</t>
+          <t>regime shift</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4068,12 +4068,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>regime shift</t>
+          <t>biodiversity</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -4083,12 +4083,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>biodiversity</t>
+          <t>government</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -4098,12 +4098,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>government</t>
+          <t>coral reef wildlife</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -4113,12 +4113,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>coral reef wildlife</t>
+          <t>data</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -4128,12 +4128,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>data</t>
+          <t>time</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -4143,7 +4143,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>time</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4158,12 +4158,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>Bootless Bay</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C249" t="n">
@@ -4173,7 +4173,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Bootless Bay</t>
+          <t>Port Moresby</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4188,7 +4188,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Port Moresby</t>
+          <t>Papua New Guinea</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -4203,12 +4203,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Papua New Guinea</t>
+          <t>marine area</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C252" t="n">
@@ -4218,12 +4218,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>marine area</t>
+          <t>Jiangxi Province</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -4233,7 +4233,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Jiangxi Province</t>
+          <t>BEF-China</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4248,12 +4248,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BEF-China</t>
+          <t>Alexandra-Maria Klein</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -4263,22 +4263,22 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Alexandra-Maria Klein</t>
+          <t>Institute of Ecology and Environmental Chemistry</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Institute of Ecology and Environmental Chemistry</t>
+          <t>Leuphana University of Lueneburg</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4293,52 +4293,52 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Leuphana University of Lueneburg</t>
+          <t>Comparative Study Plots (CSP)</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Comparative Study Plots (CSP)</t>
+          <t>Gutianshan Nature Reserve</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Gutianshan Nature Reserve</t>
+          <t>allometries</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>allometries</t>
+          <t>bathymetry</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -4353,7 +4353,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>bathymetry</t>
+          <t>backscatter</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4368,12 +4368,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>backscatter</t>
+          <t>maps</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C263" t="n">
@@ -4383,22 +4383,22 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>maps</t>
+          <t>vaginal microbiota</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>vaginal microbiota</t>
+          <t>guinea pig</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4413,7 +4413,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>guinea pig</t>
+          <t>humans</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4428,57 +4428,57 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>humans</t>
+          <t>chlamydial infections</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>chlamydial infections</t>
+          <t>taxa</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>taxa</t>
+          <t>CSP19</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>CSP19</t>
+          <t>Main Experimental sites</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -4488,12 +4488,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Main Experimental sites</t>
+          <t>secondary compound</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C271" t="n">
@@ -4503,12 +4503,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>secondary compound</t>
+          <t>stomata</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -4518,12 +4518,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>stomata</t>
+          <t>contraction</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -4533,7 +4533,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>contraction</t>
+          <t>regionally extinct</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -4548,7 +4548,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>regionally extinct</t>
+          <t>resource acquisition</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -4563,7 +4563,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>resource acquisition</t>
+          <t>recruitment</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -4578,7 +4578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>recruitment</t>
+          <t>turnover</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -4593,7 +4593,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>turnover</t>
+          <t>succession</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -4608,42 +4608,42 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>succession</t>
+          <t>forest biodiversity</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>forest biodiversity</t>
+          <t>Habitat loss</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Habitat loss</t>
+          <t>deep-sea biodiversity</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -4653,12 +4653,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>deep-sea biodiversity</t>
+          <t>eastern</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -4668,7 +4668,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>eastern</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -4683,12 +4683,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>SLA</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C284" t="n">
@@ -4698,7 +4698,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>SLA</t>
+          <t>LDMC</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -4707,28 +4707,28 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>LDMC</t>
+          <t>elemental analyzer</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>elemental analyzer</t>
+          <t>Elemental Analyzer</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -4743,12 +4743,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Elemental Analyzer</t>
+          <t>Calculations of Carbon</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C288" t="n">
@@ -4758,7 +4758,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Calculations of Carbon</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -4773,7 +4773,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>CN ratio</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -4782,18 +4782,18 @@
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>CN ratio</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C291" t="n">
@@ -4803,37 +4803,37 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>K content</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>K content</t>
+          <t>Ca2</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Ca2</t>
+          <t>Cd214</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -4848,7 +4848,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Cd214</t>
+          <t>Cd228</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -4863,7 +4863,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Cd228</t>
+          <t>Phenolics</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -4872,18 +4872,18 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Phenolics</t>
+          <t>HoloBee-Mop</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -4893,12 +4893,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>HoloBee-Mop</t>
+          <t>genome</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C298" t="n">
@@ -4908,7 +4908,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>genome</t>
+          <t>assemblies</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -4923,12 +4923,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>assemblies</t>
+          <t>holobiont</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C300" t="n">
@@ -4938,12 +4938,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>holobiont</t>
+          <t>sequence</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C301" t="n">
@@ -4953,12 +4953,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>sequence</t>
+          <t>Plant Collection Records</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C302" t="n">
@@ -4968,12 +4968,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Plant Collection Records</t>
+          <t>Census Data</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C303" t="n">
@@ -4983,12 +4983,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Census Data</t>
+          <t>Tropical South America</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C304" t="n">
@@ -4998,12 +4998,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Tropical South America</t>
+          <t>tropical ecosystems</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -5013,12 +5013,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>tropical ecosystems</t>
+          <t>Strait of Gibraltar</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -5028,7 +5028,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Strait of Gibraltar</t>
+          <t>western African coast</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5043,7 +5043,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>western African coast</t>
+          <t>Adriatic</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5058,12 +5058,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Adriatic</t>
+          <t>density-dependence</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -5073,12 +5073,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>density-dependence</t>
+          <t>medium to large-bodied mammals</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -5088,12 +5088,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>medium to large-bodied mammals</t>
+          <t>local extinctions</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -5103,12 +5103,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>local extinctions</t>
+          <t>tropical biodiversity hotspots</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -5118,12 +5118,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>tropical biodiversity hotspots</t>
+          <t>pitfall traps</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -5133,37 +5133,37 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>pitfall traps</t>
+          <t>CSPs</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>CSPs</t>
+          <t>invertebrates</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>invertebrates</t>
+          <t>herptiles</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5178,7 +5178,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>herptiles</t>
+          <t>reptiles and amphibians</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5193,7 +5193,7 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>reptiles and amphibians</t>
+          <t>Tetramorium.wroughtonii</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -5202,43 +5202,43 @@
         </is>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Tetramorium.wroughtonii</t>
+          <t>primary production</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>primary production</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>reference station</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -5247,13 +5247,13 @@
         </is>
       </c>
       <c r="C321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>reference station</t>
+          <t>Porcupine Abyssal Plain</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -5268,7 +5268,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Porcupine Abyssal Plain</t>
+          <t>Waikato region</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5283,12 +5283,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Waikato region</t>
+          <t>native vegetation</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C324" t="n">
@@ -5298,7 +5298,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>native vegetation</t>
+          <t>soil invertebrates</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5313,12 +5313,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>soil invertebrates</t>
+          <t>earthworm invasion</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C326" t="n">
@@ -5328,12 +5328,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>earthworm invasion</t>
+          <t>threatened species</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C327" t="n">
@@ -5343,7 +5343,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>threatened species</t>
+          <t>invasive species</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -5358,12 +5358,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>invasive species</t>
+          <t>snow</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C329" t="n">
@@ -5373,12 +5373,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>snow</t>
+          <t>snag</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C330" t="n">
@@ -5388,12 +5388,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>snag</t>
+          <t>stem</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C331" t="n">
@@ -5403,12 +5403,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>stem</t>
+          <t>termites</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C332" t="n">
@@ -5418,12 +5418,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>termites</t>
+          <t>debris</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C333" t="n">
@@ -5433,12 +5433,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>debris</t>
+          <t>BD</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C334" t="n">
@@ -5448,7 +5448,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t xml:space="preserve"> height</t>
+          <t>dbh</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -5463,7 +5463,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>BD</t>
+          <t>stemsGrEq10</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -5478,7 +5478,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>dbh</t>
+          <t>stemsCnSm10</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -5493,7 +5493,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>stemsGrEq10</t>
+          <t>dtop</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -5508,7 +5508,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>stemsCnSm10</t>
+          <t>neigh.dist</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -5523,12 +5523,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>dtop</t>
+          <t>CWD</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C340" t="n">
@@ -5538,12 +5538,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>neigh.dist</t>
+          <t>pos.af</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C341" t="n">
@@ -5553,12 +5553,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>CWD</t>
+          <t>ter</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C342" t="n">
@@ -5568,12 +5568,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>pos.af</t>
+          <t>rot</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C343" t="n">
@@ -5583,7 +5583,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>ter</t>
+          <t>crown_origin</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -5598,12 +5598,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>rot</t>
+          <t>North American zoo and aquarium vertebrate animals</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C345" t="n">
@@ -5613,27 +5613,27 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>crown_origin</t>
+          <t>Woody debris</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>North American zoo and aquarium vertebrate animals</t>
+          <t>Lüneburg</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C347" t="n">
@@ -5643,27 +5643,27 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Woody debris</t>
+          <t>soil biota</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C348" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Lüneburg</t>
+          <t>environmental changes</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C349" t="n">
@@ -5673,12 +5673,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>soil biota</t>
+          <t>_taxonomic biodiversity</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C350" t="n">
@@ -5688,12 +5688,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>environmental changes</t>
+          <t>taxon diversity</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C351" t="n">
@@ -5703,12 +5703,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>_taxonomic biodiversity</t>
+          <t>Chlamydia caviae</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C352" t="n">
@@ -5718,12 +5718,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>taxon diversity</t>
+          <t>infection</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C353" t="n">
@@ -5733,27 +5733,27 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Chlamydia caviae</t>
+          <t>vaginal microbiota</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>infection</t>
+          <t>pathogens</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C355" t="n">
@@ -5763,22 +5763,22 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>vaginal microbiota</t>
+          <t>Chlamydia trachomatis</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>pathogens</t>
+          <t>decomposer</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -5793,12 +5793,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Chlamydia trachomatis</t>
+          <t>grassland biodiversity experiment</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C358" t="n">
@@ -5808,12 +5808,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>decomposer</t>
+          <t>rates</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C359" t="n">
@@ -5823,12 +5823,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>grassland biodiversity experiment</t>
+          <t>trait variability</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C360" t="n">
@@ -5838,12 +5838,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>rates</t>
+          <t>fine earth</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C361" t="n">
@@ -5853,12 +5853,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>trait variability</t>
+          <t>CWD</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C362" t="n">
@@ -5868,12 +5868,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>fine earth</t>
+          <t>CWD</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C363" t="n">
@@ -5883,12 +5883,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>CWD</t>
+          <t>marine conservation</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C364" t="n">
@@ -5898,7 +5898,7 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>CWD</t>
+          <t>amoebae</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -5913,12 +5913,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>marine conservation</t>
+          <t>FLA microbiome</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C366" t="n">
@@ -5928,12 +5928,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>amoebae</t>
+          <t>environmental strains</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C367" t="n">
@@ -5943,7 +5943,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>FLA microbiome</t>
+          <t>drinking water network</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5958,27 +5958,27 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>environmental strains</t>
+          <t>Alticinae sp.1</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>drinking water network</t>
+          <t>trait variation</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C370" t="n">
@@ -5988,42 +5988,42 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Alticinae sp.1</t>
+          <t>carbon allocation</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>trait variation</t>
+          <t>constraints</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>carbon allocation</t>
+          <t>compound</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C373" t="n">
@@ -6033,7 +6033,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>constraints</t>
+          <t>mode of action</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6042,18 +6042,18 @@
         </is>
       </c>
       <c r="C374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>phenomena</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6063,12 +6063,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>mode of action</t>
+          <t>surficial lithology classes</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6078,12 +6078,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>phenomena</t>
+          <t>Surficial Materials</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C377" t="n">
@@ -6093,12 +6093,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>surficial lithology classes</t>
+          <t>Conterminous United States</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C378" t="n">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Surficial Materials</t>
+          <t>internal structure</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,12 +6123,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Conterminous United States</t>
+          <t>materials</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C380" t="n">
@@ -6138,27 +6138,27 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>internal structure</t>
+          <t>rain</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>materials</t>
+          <t>Irish Law</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C382" t="n">
@@ -6168,22 +6168,22 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>rain</t>
+          <t>Products</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C383" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Irish Law</t>
+          <t>Regulations</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6198,12 +6198,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Products</t>
+          <t>Sierra Leonean national park</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C385" t="n">
@@ -6213,12 +6213,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Regulations</t>
+          <t>Shannon-Wiener biodiversity indices</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,12 +6228,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Sierra Leonean national park</t>
+          <t>metadata</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C387" t="n">
@@ -6243,7 +6243,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Shannon-Wiener biodiversity indices</t>
+          <t>dimensionless</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -6258,27 +6258,27 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>metadata</t>
+          <t>PLFA</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>dimensionless</t>
+          <t>Anja FankhÃ¤nel</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6288,27 +6288,27 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>PLFA</t>
+          <t>Christian and Goddert</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Anja FankhÃ¤nel</t>
+          <t>environmental parameters</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6318,7 +6318,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Christian and Goddert</t>
+          <t>Intermountain West</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>environmental parameters</t>
+          <t>branch</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Intermountain West</t>
+          <t>branches</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,7 +6363,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>branch</t>
+          <t>Hemiptera</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6378,12 +6378,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>Wikipedia</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C397" t="n">
@@ -6393,12 +6393,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Hemiptera</t>
+          <t>Levantine Basin</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C398" t="n">
@@ -6408,12 +6408,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Wikipedia</t>
+          <t>invasion of species</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C399" t="n">
@@ -6423,12 +6423,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Levantine Basin</t>
+          <t>sand</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C400" t="n">
@@ -6438,12 +6438,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>invasion of species</t>
+          <t>Species_Tax</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C401" t="n">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>sand</t>
+          <t>N-fixation</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,12 +6468,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Species_Tax</t>
+          <t>evolution</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C403" t="n">
@@ -6483,12 +6483,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>N-fixation</t>
+          <t>holobiont communities</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C404" t="n">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>evolution</t>
+          <t>land-use</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,7 +6513,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>holobiont communities</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -6528,12 +6528,12 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>land-use</t>
+          <t>marine hard bottom communities</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C407" t="n">
@@ -6543,7 +6543,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>CSPs</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>marine hard bottom communities</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>CSPs</t>
+          <t>sexually transmitted infection</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,12 +6588,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>logged forest</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6603,12 +6603,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>sexually transmitted infection</t>
+          <t>sites</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C412" t="n">
@@ -6618,12 +6618,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>logged forest</t>
+          <t>juveniles of all species</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C413" t="n">
@@ -6633,7 +6633,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>sites</t>
+          <t>monocultures</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6648,12 +6648,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>juveniles of all species</t>
+          <t>common garden</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C415" t="n">
@@ -6663,12 +6663,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>monocultures</t>
+          <t>shadow treatment</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C416" t="n">
@@ -6678,7 +6678,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>common garden</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6693,12 +6693,12 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>shadow treatment</t>
+          <t>ecotones</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C418" t="n">
@@ -6708,12 +6708,12 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>breastheight</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C419" t="n">
@@ -6723,12 +6723,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>ecotones</t>
+          <t>CI_ME</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C420" t="n">
@@ -6738,12 +6738,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>breastheight</t>
+          <t>Martin</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>CI_ME</t>
+          <t>monomethylarsonic acid</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Martin</t>
+          <t>monomethylarsonous acid</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,7 +6783,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>monomethylarsonic acid</t>
+          <t>Allometries</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -6798,12 +6798,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>monomethylarsonous acid</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C425" t="n">
@@ -6813,12 +6813,12 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Allometries</t>
+          <t>NNR</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C426" t="n">
@@ -6828,7 +6828,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>broad-leaved forests</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -6843,7 +6843,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>NNR</t>
+          <t>Hu &amp; Yu 2008</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -6858,12 +6858,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>broad-leaved forests</t>
+          <t>advanced successional stages</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C429" t="n">
@@ -6873,12 +6873,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Hu &amp; Yu 2008</t>
+          <t>young successional stages</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C430" t="n">
@@ -6888,12 +6888,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>advanced successional stages</t>
+          <t>carbon-based leaf defence traits</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C431" t="n">
@@ -6903,7 +6903,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>young successional stages</t>
+          <t>diversity-multi-functionality relationships</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>carbon-based leaf defence traits</t>
+          <t>fallow types</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,7 +6933,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>diversity-multi-functionality relationships</t>
+          <t>management</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>fallow types</t>
+          <t>disturbance</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>management</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>disturbance</t>
+          <t>finfish sites</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,12 +6993,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C438" t="n">
@@ -7008,12 +7008,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>finfish sites</t>
+          <t>finfish</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C439" t="n">
@@ -7023,12 +7023,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>trophobioses</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C440" t="n">
@@ -7038,12 +7038,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>finfish</t>
+          <t>specimens</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>trophobioses</t>
+          <t>canopy</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,12 +7068,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>specimens</t>
+          <t>physical</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C443" t="n">
@@ -7083,12 +7083,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>canopy</t>
+          <t>chemical</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C444" t="n">
@@ -7098,12 +7098,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>physical</t>
+          <t>defence</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C445" t="n">
@@ -7113,12 +7113,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>chemical</t>
+          <t>Species Helper</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C446" t="n">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>defence</t>
+          <t>BA14</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,67 +7143,67 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Species Helper</t>
+          <t>plot</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t xml:space="preserve">BA14 </t>
+          <t>Plant and Animal Species Atlas</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>plot</t>
+          <t>vascular plants</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Plant and Animal Species Atlas</t>
+          <t>ferns</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>vascular plants</t>
+          <t>reptiles &amp; amphibians</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7218,7 +7218,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>ferns</t>
+          <t>Insect Herbivore Microbiome</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
@@ -7233,12 +7233,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>reptiles &amp; amphibians</t>
+          <t>plant cell walls</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,12 +7248,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Insect Herbivore Microbiome</t>
+          <t>splashcups</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C455" t="n">
@@ -7263,12 +7263,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>plant cell walls</t>
+          <t>drying trend</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C456" t="n">
@@ -7278,12 +7278,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>splashcups</t>
+          <t>Corsica Island</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C457" t="n">
@@ -7293,12 +7293,12 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>drying trend</t>
+          <t>originality</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C458" t="n">
@@ -7308,12 +7308,12 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Corsica Island</t>
+          <t>specialization</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C459" t="n">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>originality</t>
+          <t>plant biodiversity</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,27 +7338,27 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>specialization</t>
+          <t>Anthropocene</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>plant biodiversity</t>
+          <t>anthropogenic biodiversity change</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,7 +7368,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Anthropocene</t>
+          <t>human systems</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C463" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>anthropogenic biodiversity change</t>
+          <t>gradient</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -7398,12 +7398,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>human systems</t>
+          <t>city-of-ny_fuhs-xmg2</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C465" t="n">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>gradient</t>
+          <t>Urban Park Ranger</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>city-of-ny_fuhs-xmg2</t>
+          <t>Animal Condition Response</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Urban Park Ranger</t>
+          <t>ant–hemipteran interactions</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,27 +7458,27 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Animal Condition Response</t>
+          <t>shrub</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>ant–hemipteran interactions</t>
+          <t>Tree or shrub</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,27 +7488,27 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>shrub</t>
+          <t>row</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C471" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Tree or shrub</t>
+          <t>North</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C472" t="n">
@@ -7518,7 +7518,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>row</t>
+          <t>column</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7533,7 +7533,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>North</t>
+          <t>west</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>column</t>
+          <t>E. fetida</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,12 +7563,12 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>west</t>
+          <t>compost microbiota</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C476" t="n">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>E. fetida</t>
+          <t>gene expression</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>compost microbiota</t>
+          <t>number</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,7 +7608,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>gene expression</t>
+          <t>carbon footprint</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>number</t>
+          <t>world</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>carbon footprint</t>
+          <t>human populations</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>world</t>
+          <t>biodiversity changes</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,12 +7668,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>human populations</t>
+          <t>BDE-209</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C483" t="n">
@@ -7683,7 +7683,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>biodiversity changes</t>
+          <t>retention forestry</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>BDE-209</t>
+          <t>forest dynamics</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>retention forestry</t>
+          <t>annual mortality rate</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,12 +7728,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>forest dynamics</t>
+          <t>species abundance</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C487" t="n">
@@ -7743,12 +7743,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>annual mortality rate</t>
+          <t>species distribution</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C488" t="n">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>species abundance</t>
+          <t>speciesâ€”area relationship</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>species distribution</t>
+          <t>functional groups</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>speciesâ€”area relationship</t>
+          <t>the species</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>functional groups</t>
+          <t>ant–hemipteran</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,7 +7818,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>the species</t>
+          <t>leaf chewer</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>ant–hemipteran</t>
+          <t>Andreas Schuldt</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>leaf chewer</t>
+          <t>German Centre for Integrative Biodiversity Research (iDiv)</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,7 +7863,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Andreas Schuldt</t>
+          <t>Alexandra-Maria Klein</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -7878,7 +7878,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research (iDiv)</t>
+          <t>Scharnhorststr</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -7893,12 +7893,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Alexandra-Maria Klein</t>
+          <t>bacterial</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C498" t="n">
@@ -7908,12 +7908,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Scharnhorststr</t>
+          <t>Crematogaster cf rogenhoferi</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C499" t="n">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>bacterial</t>
+          <t>barcode data</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,12 +7938,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Crematogaster cf rogenhoferi</t>
+          <t>adult</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C501" t="n">
@@ -7953,12 +7953,12 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>barcode data</t>
+          <t>genitalia variation</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C502" t="n">
@@ -7968,12 +7968,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>adult</t>
+          <t>caterpillar ecology</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C503" t="n">
@@ -7983,12 +7983,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>genitalia variation</t>
+          <t>lithology</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C504" t="n">
@@ -7998,12 +7998,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>caterpillar ecology</t>
+          <t>Kruckeberg</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C505" t="n">
@@ -8013,12 +8013,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>lithology</t>
+          <t>biodiversity-ecosystem function relationships</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C506" t="n">
@@ -8028,12 +8028,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Kruckeberg</t>
+          <t>km2</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C507" t="n">
@@ -8043,27 +8043,27 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>biodiversity-ecosystem function relationships</t>
+          <t>North Atlantic</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>km2</t>
+          <t>fine soft sediment substrate</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C509" t="n">
@@ -8073,27 +8073,27 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>North Atlantic</t>
+          <t>m</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C510" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>fine soft sediment substrate</t>
+          <t>flat terraces</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C511" t="n">
@@ -8103,12 +8103,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>ridge axis</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C512" t="n">
@@ -8118,12 +8118,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>flat terraces</t>
+          <t>microbial biomass</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C513" t="n">
@@ -8133,12 +8133,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>ridge axis</t>
+          <t>mineral soil</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C514" t="n">
@@ -8148,12 +8148,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>microbial biomass</t>
+          <t>organic soil</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C515" t="n">
@@ -8163,7 +8163,7 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>mineral soil</t>
+          <t>soil layers</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
@@ -8172,36 +8172,6 @@
         </is>
       </c>
       <c r="C516" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>organic soil</t>
-        </is>
-      </c>
-      <c r="B517" t="inlineStr">
-        <is>
-          <t>ENVIRONMENT</t>
-        </is>
-      </c>
-      <c r="C517" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>soil layers</t>
-        </is>
-      </c>
-      <c r="B518" t="inlineStr">
-        <is>
-          <t>ENVIRONMENT</t>
-        </is>
-      </c>
-      <c r="C518" t="n">
         <v>2</v>
       </c>
     </row>
